--- a/utils/Audit_report.xlsx
+++ b/utils/Audit_report.xlsx
@@ -29,12 +29,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +61,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,296 +444,213 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Date &amp; Time</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Machine Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Process Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Process Start Time</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Process End Time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr"/>
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Candidate Name</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Details (As JSON)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Exception</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>John smith</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>{"phone": "(123) 496-7890", "location": "New York,NY", "reporting_manager": "Sarah Thompson", "job_title": "Software Engineer", "start_date": "2024-10-01", "email": "john.smith@email.com", "department": "Engineering"}</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Emmy Davie</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>{"phone": "(234) 567-8901", "location": "SanFrancisco,CA", "reporting_manager": "James O'Brien", "job_title": "Pata Analyst", "start_date": "2024-10-15", "email": "emily.davis@email.com", "department": "Data Science"}</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Michael Brown</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>{"phone": "(349) 678-9012", "location": "Chicago, IL", "reporting_manager": "Karen Wilson", "job_title": "ProjectManager", "start_date": "2024-11-01", "email": "michael.brown@email.com", "department": "Operations"}</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>SophiaJonnson</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>{"phone": "(496) 789-0123", "location": "Seattle, WA", "reporting_manager": "David Clark", "job_title": "UXDesigner", "start_date": "2024-11-10", "email": "sophia.johnnson@email.com", "department": "Design"}</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>OliviaWhite</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>{"phone": "(678) 901-2345", "location": "Boston,MA", "reporting_manager": "Robert Green", "job_title": "Marketing Specialist", "start_date": "2024-12-01", "email": "Olivia.white@email.com", "department": "Business Strategy"}</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>OliviaWhite</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>{"phone": "(678) 901-2345", "location": "Boston,MA", "reporting_manager": "Robert Green", "job_title": "Marketing Specialist", "start_date": "2024-12-01", "email": "Olivia.white@email.com", "department": "Marketing"}</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>JonnDog</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>{"phone": "(929) 123-4567", "location": "New York City", "reporting_manager": "Emily Clark", "job_title": "Software Engineer", "start_date": "2024-10-01", "email": "J0nn-doe@example.com", "department": "Engineering"}</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Janesmith</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>{"phone": "(999) 234-5678", "location": "San Francisco", "reporting_manager": "David Lee", "job_title": "Marketing Manager", "start_date": "2024-11-15", "email": "jane.smith@example.com", "department": "Marketing"}</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Michael Johnson</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>{"phone": "(929) 349-6789", "location": "Austin", "reporting_manager": "Sarah Brown", "job_title": "DataAnalyst", "start_date": "2024-09-20", "email": "Michael.J@example.com", "department": "Data Science"}</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Emmy Davie</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>{"phone": "(929) 496-7890", "location": "Chicago", "reporting_manager": "James Wright", "job_title": "ProductManager", "start_date": "2024-10-05", "email": "emily.davis@example.com", "department": "Product Management"}</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>Robert Wilson</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>{"phone": "(999) 567-8901", "location": "Seattle", "reporting_manager": "Olivia Martin", "job_title": "U* Designer", "start_date": "2024-11-01", "email": "robert.wilson@example.com", "department": "Design"}</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Sarah Thompson</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>{"phone": "(99\u00c2\u00b0) 678-9012", "location": "Boston", "reporting_manager": "Mark Taylor", "job_title": "MR Specialist", "start_date": "2024-09-30", "email": "sarah.thompson@example.com", "department": "Human Resources"}</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
